--- a/Payroll Project.xlsx
+++ b/Payroll Project.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Imran\Documents\Excel\Payroll Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Imran\Documents\Excel\Payroll Project\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4A8301-E819-42EE-A134-F50E9F55D349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAFFA61-BCDB-46F2-BF4A-EE16AE5DCFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C462A709-70C1-4659-8053-9EDBE2CA0629}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C462A709-70C1-4659-8053-9EDBE2CA0629}"/>
   </bookViews>
   <sheets>
     <sheet name="Payroll" sheetId="3" r:id="rId1"/>
+    <sheet name="Gradebook" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="122">
   <si>
     <t>Employee Payroll</t>
   </si>
@@ -267,6 +268,141 @@
   </si>
   <si>
     <t>29-Jan21</t>
+  </si>
+  <si>
+    <t>Gradebook</t>
+  </si>
+  <si>
+    <t>LeBron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        James</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Curry</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Durant</t>
+  </si>
+  <si>
+    <t>Giannis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Antetokounmpo</t>
+  </si>
+  <si>
+    <t>Luka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Dončić</t>
+  </si>
+  <si>
+    <t>Jayson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Tatum</t>
+  </si>
+  <si>
+    <t>Joel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Embiid</t>
+  </si>
+  <si>
+    <t>Jimmy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Butler</t>
+  </si>
+  <si>
+    <t>Devin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Booker</t>
+  </si>
+  <si>
+    <t>Kawhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Leonard</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Davis</t>
+  </si>
+  <si>
+    <t>Damian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Lillard</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Morant</t>
+  </si>
+  <si>
+    <t>Zion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Williamson</t>
+  </si>
+  <si>
+    <t>Kyrie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Irving</t>
+  </si>
+  <si>
+    <t>Nikola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Jokić</t>
+  </si>
+  <si>
+    <t>Trae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Young</t>
+  </si>
+  <si>
+    <t>Karl-Anthony</t>
+  </si>
+  <si>
+    <t>Towns</t>
+  </si>
+  <si>
+    <t>Donovan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Mitchell</t>
+  </si>
+  <si>
+    <t>Safety Test</t>
+  </si>
+  <si>
+    <t>Drug Test</t>
+  </si>
+  <si>
+    <t>Company Philosophy Test</t>
+  </si>
+  <si>
+    <t>Financial Skills Test</t>
+  </si>
+  <si>
+    <t>Points Possible</t>
+  </si>
+  <si>
+    <t>Fire Employee</t>
   </si>
 </sst>
 </file>
@@ -275,9 +411,16 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="&quot;£&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;£&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,13 +482,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -355,29 +498,51 @@
     <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="32">
     <dxf>
-      <numFmt numFmtId="21" formatCode="dd\-mmm"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -608,6 +773,23 @@
     <dxf>
       <numFmt numFmtId="164" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="dd\-mmm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -621,79 +803,3681 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Safety Test</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="30000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                          <a:lumOff val="40000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gradebook!$B$4:$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>        James</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>        Curry</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>        Durant</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>        Antetokounmpo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>        Dončić</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>        Tatum</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>        Embiid</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>        Butler</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>        Booker</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>        Leonard</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>        Davis</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>        Lillard</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>        Morant</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>        Williamson</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>        Irving</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>        Jokić</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>        Young</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Towns</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>        Mitchell</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gradebook!$C$4:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A13C-4331-90E5-4E1EB5E9D32B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="154"/>
+        <c:gapDepth val="0"/>
+        <c:shape val="box"/>
+        <c:axId val="1258014047"/>
+        <c:axId val="1258015487"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1258014047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Last Name</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1258015487"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1258015487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1258014047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Company Philosophy Test </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+            <a:alpha val="27000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="88000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="flat">
+              <a:contourClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" dist="88900" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gradebook!$B$4:$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>        James</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>        Curry</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>        Durant</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>        Antetokounmpo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>        Dončić</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>        Tatum</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>        Embiid</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>        Butler</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>        Booker</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>        Leonard</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>        Davis</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>        Lillard</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>        Morant</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>        Williamson</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>        Irving</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>        Jokić</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>        Young</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Towns</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>        Mitchell</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gradebook!$D$4:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-21B5-4D24-9C4E-E1A5F7AB2357}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="84"/>
+        <c:gapDepth val="53"/>
+        <c:shape val="box"/>
+        <c:axId val="567381071"/>
+        <c:axId val="1318021663"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="567381071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Last Name</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1318021663"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1318021663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="567381071"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:tint val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Financial Skills Test </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="10"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:pattFill prst="ltDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d>
+              <a:contourClr>
+                <a:schemeClr val="accent1"/>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gradebook!$B$4:$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>        James</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>        Curry</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>        Durant</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>        Antetokounmpo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>        Dončić</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>        Tatum</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>        Embiid</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>        Butler</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>        Booker</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>        Leonard</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>        Davis</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>        Lillard</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>        Morant</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>        Williamson</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>        Irving</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>        Jokić</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>        Young</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Towns</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>        Mitchell</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gradebook!$E$4:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ACC8-4BFE-BF1E-9C496C4012B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="160"/>
+        <c:gapDepth val="0"/>
+        <c:shape val="box"/>
+        <c:axId val="1145752895"/>
+        <c:axId val="1316615743"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1145752895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Last Name</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1316615743"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1316615743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1145752895"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="295">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="150" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="20000"/>
+          <a:lumOff val="80000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="20000"/>
+          <a:lumOff val="80000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:sp3d/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="22225">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="30000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:sp3d/>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="291">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:tint val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="30000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="63500" dist="88900" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="30000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="63500" dist="88900" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="88000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="88000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="flat"/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg2">
+          <a:lumMod val="75000"/>
+          <a:alpha val="27000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:sp3d/>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="0" kern="1200" cap="all" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:sp3d/>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="287">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:sp3d/>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA152C55-9EA1-4CBE-AB75-764AEC0EE6CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>100011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1359C0FC-5DB3-4CA5-A849-A87BF3349B5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>309563</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CA25B1A-8AC4-4FC4-BDA0-68B31569319D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{19ECE960-D641-4056-A9F7-77793523D516}" name="Table1" displayName="Table1" ref="A3:AC23" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{19ECE960-D641-4056-A9F7-77793523D516}" name="Table1" displayName="Table1" ref="A3:AC23" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A3:AC23" xr:uid="{19ECE960-D641-4056-A9F7-77793523D516}"/>
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{46AA57D7-54B3-4613-9813-E0ACC9C411D6}" name="First Name"/>
     <tableColumn id="2" xr3:uid="{405ACE49-CE22-4930-8800-4F755C8F7D45}" name="Last Name"/>
-    <tableColumn id="3" xr3:uid="{11026232-4DEE-4994-94C7-79898DFA0292}" name="Hourly Wage" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{65821BB5-5FD5-43E7-802A-3A1477F742E8}" name="01-Jan" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{68707BB6-9B0E-4821-B8CB-5919FB649FC9}" name="08-Jan" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{F0B95BCC-4CD6-4C2C-A266-761E7B04E73C}" name="15-Jan" dataDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{932FDB46-1C2E-4B68-B3C4-C419CB532D0A}" name="22-Jan" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{D76904A0-D00A-49CC-AF60-3CB6A8A29317}" name="29-Jan" dataDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{712BA18F-9B8D-40C7-B499-493A23C78965}" name="01-Jan2" dataDxfId="22">
+    <tableColumn id="3" xr3:uid="{11026232-4DEE-4994-94C7-79898DFA0292}" name="Hourly Wage" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{65821BB5-5FD5-43E7-802A-3A1477F742E8}" name="01-Jan" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{68707BB6-9B0E-4821-B8CB-5919FB649FC9}" name="08-Jan" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{F0B95BCC-4CD6-4C2C-A266-761E7B04E73C}" name="15-Jan" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{932FDB46-1C2E-4B68-B3C4-C419CB532D0A}" name="22-Jan" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{D76904A0-D00A-49CC-AF60-3CB6A8A29317}" name="29-Jan" dataDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{712BA18F-9B8D-40C7-B499-493A23C78965}" name="01-Jan2" dataDxfId="23">
       <calculatedColumnFormula>IF(D4&gt;40,D4-40,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{CFF5B4BC-5C34-47D5-958B-3DFC4911183A}" name="08-Jan3" dataDxfId="21">
+    <tableColumn id="10" xr3:uid="{CFF5B4BC-5C34-47D5-958B-3DFC4911183A}" name="08-Jan3" dataDxfId="22">
       <calculatedColumnFormula>IF(E4&gt;40,E4-40,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{CEB16D5D-2E22-4ACA-ABFF-B37E031F5311}" name="15-Jan4" dataDxfId="20">
+    <tableColumn id="11" xr3:uid="{CEB16D5D-2E22-4ACA-ABFF-B37E031F5311}" name="15-Jan4" dataDxfId="21">
       <calculatedColumnFormula>IF(F4&gt;40,F4-40,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{AE43DD50-BF1C-4CFB-BD46-73F62B7889F6}" name="22-Jan5" dataDxfId="19">
+    <tableColumn id="12" xr3:uid="{AE43DD50-BF1C-4CFB-BD46-73F62B7889F6}" name="22-Jan5" dataDxfId="20">
       <calculatedColumnFormula>IF(G4&gt;40,G4-40,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{E51A7991-608A-47A1-B85A-37E95E34A993}" name="29-Jan6" dataDxfId="18">
+    <tableColumn id="13" xr3:uid="{E51A7991-608A-47A1-B85A-37E95E34A993}" name="29-Jan6" dataDxfId="19">
       <calculatedColumnFormula>IF(H4&gt;40,H4-40,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{B8E0A056-14B7-41C6-98B1-FC3676885921}" name="01-Jan7" dataDxfId="17">
+    <tableColumn id="14" xr3:uid="{B8E0A056-14B7-41C6-98B1-FC3676885921}" name="01-Jan7" dataDxfId="18">
       <calculatedColumnFormula>$C4*D4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{945449EF-E0C2-4B80-89D0-2A6A0805FB14}" name="08-Jan8" dataDxfId="16">
+    <tableColumn id="15" xr3:uid="{945449EF-E0C2-4B80-89D0-2A6A0805FB14}" name="08-Jan8" dataDxfId="17">
       <calculatedColumnFormula>$C4*E4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{427C61BF-7663-4DFE-BFDA-B391EE448AD0}" name="15-Jan9" dataDxfId="15">
+    <tableColumn id="16" xr3:uid="{427C61BF-7663-4DFE-BFDA-B391EE448AD0}" name="15-Jan9" dataDxfId="16">
       <calculatedColumnFormula>$C4*F4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{536E8C68-E31E-4976-8924-E5F4149117B2}" name="22-Jan10" dataDxfId="14">
+    <tableColumn id="17" xr3:uid="{536E8C68-E31E-4976-8924-E5F4149117B2}" name="22-Jan10" dataDxfId="15">
       <calculatedColumnFormula>$C4*G4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{F7B8FA2A-53D9-4AA2-8D30-ABA89A3DFCD9}" name="29-Jan11" dataDxfId="13">
+    <tableColumn id="18" xr3:uid="{F7B8FA2A-53D9-4AA2-8D30-ABA89A3DFCD9}" name="29-Jan11" dataDxfId="14">
       <calculatedColumnFormula>$C4*H4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{E0D6802B-F07C-4EB0-BE9E-97BB7B1D6108}" name="01-Jan12" dataDxfId="12">
+    <tableColumn id="19" xr3:uid="{E0D6802B-F07C-4EB0-BE9E-97BB7B1D6108}" name="01-Jan12" dataDxfId="13">
       <calculatedColumnFormula>0.5*$C4*I4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{C8452407-4BDE-4ACD-B7B9-8DBC9A30C4BD}" name="08-Jan13" dataDxfId="11">
+    <tableColumn id="20" xr3:uid="{C8452407-4BDE-4ACD-B7B9-8DBC9A30C4BD}" name="08-Jan13" dataDxfId="12">
       <calculatedColumnFormula>0.5*$C4*J4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{FB25184D-CE37-4149-848A-16D2E0AC8206}" name="15-Jan14" dataDxfId="10">
+    <tableColumn id="21" xr3:uid="{FB25184D-CE37-4149-848A-16D2E0AC8206}" name="15-Jan14" dataDxfId="11">
       <calculatedColumnFormula>0.5*$C4*K4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{2E1DAAA0-7F64-44BC-A46A-529EA7C71D4D}" name="22-Jan15" dataDxfId="9">
+    <tableColumn id="22" xr3:uid="{2E1DAAA0-7F64-44BC-A46A-529EA7C71D4D}" name="22-Jan15" dataDxfId="10">
       <calculatedColumnFormula>0.5*$C4*L4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{BD31CBB4-DB55-4F84-BE48-786130A57662}" name="29-Jan16" dataDxfId="8">
+    <tableColumn id="23" xr3:uid="{BD31CBB4-DB55-4F84-BE48-786130A57662}" name="29-Jan16" dataDxfId="9">
       <calculatedColumnFormula>0.5*$C4*M4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{F61E3D73-37D8-4EA3-A24D-9741629C4243}" name="01-Jan17" dataDxfId="7">
+    <tableColumn id="24" xr3:uid="{F61E3D73-37D8-4EA3-A24D-9741629C4243}" name="01-Jan17" dataDxfId="8">
       <calculatedColumnFormula>N4+S4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{07255C0B-2667-4305-886A-373D74049C30}" name="08-Jan18" dataDxfId="6">
+    <tableColumn id="25" xr3:uid="{07255C0B-2667-4305-886A-373D74049C30}" name="08-Jan18" dataDxfId="7">
       <calculatedColumnFormula>O4+T4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{408DD7BD-23A4-42DA-8FB4-BE97E1F8C8F3}" name="15-Jan19" dataDxfId="5">
+    <tableColumn id="26" xr3:uid="{408DD7BD-23A4-42DA-8FB4-BE97E1F8C8F3}" name="15-Jan19" dataDxfId="6">
       <calculatedColumnFormula>P4+U4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{3C635D34-AC9F-460C-9735-083006ECA314}" name="22-Jan20" dataDxfId="4">
+    <tableColumn id="27" xr3:uid="{3C635D34-AC9F-460C-9735-083006ECA314}" name="22-Jan20" dataDxfId="5">
       <calculatedColumnFormula>Q4+V4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{46D10152-FEA6-461A-9862-B847DD04C4C4}" name="29-Jan21" dataDxfId="3">
+    <tableColumn id="28" xr3:uid="{46D10152-FEA6-461A-9862-B847DD04C4C4}" name="29-Jan21" dataDxfId="4">
       <calculatedColumnFormula>R4+W4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{CBB8016B-FDDB-4C5B-B426-B375FD4CF40A}" name="January Pay" dataDxfId="2">
+    <tableColumn id="29" xr3:uid="{CBB8016B-FDDB-4C5B-B426-B375FD4CF40A}" name="January Pay" dataDxfId="3">
       <calculatedColumnFormula>SUM(X4:AB4)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1020,7 +4804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062F8444-CCA8-4AC8-9D58-CC5B6D636414}">
   <dimension ref="A1:AC28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -1073,82 +4857,82 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="T3" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="U3" s="11" t="s">
+      <c r="U3" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="V3" s="11" t="s">
+      <c r="V3" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="W3" s="11" t="s">
+      <c r="W3" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="X3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="Y3" s="5" t="s">
+      <c r="Y3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Z3" s="5" t="s">
+      <c r="Z3" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AA3" s="5" t="s">
+      <c r="AA3" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AB3" s="5" t="s">
+      <c r="AB3" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AC3" s="13" t="s">
+      <c r="AC3" s="12" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1162,102 +4946,102 @@
       <c r="C4" s="1">
         <v>17.25</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>38</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>40</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>36</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>39</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>38</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="9">
         <f>IF(D4&gt;40,D4-40,0)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="9">
         <f t="shared" ref="J4:M19" si="0">IF(E4&gt;40,E4-40,0)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="7">
         <f>$C4*D4</f>
         <v>655.5</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="7">
         <f t="shared" ref="O4:R19" si="1">$C4*E4</f>
         <v>690</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="7">
         <f t="shared" si="1"/>
         <v>621</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="Q4" s="7">
         <f t="shared" si="1"/>
         <v>672.75</v>
       </c>
-      <c r="R4" s="8">
+      <c r="R4" s="7">
         <f t="shared" si="1"/>
         <v>655.5</v>
       </c>
-      <c r="S4" s="12">
+      <c r="S4" s="11">
         <f>0.5*$C4*I4</f>
         <v>0</v>
       </c>
-      <c r="T4" s="12">
+      <c r="T4" s="11">
         <f t="shared" ref="T4:W19" si="2">0.5*$C4*J4</f>
         <v>0</v>
       </c>
-      <c r="U4" s="12">
+      <c r="U4" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V4" s="12">
+      <c r="V4" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W4" s="12">
+      <c r="W4" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X4" s="6">
+      <c r="X4" s="5">
         <f>N4+S4</f>
         <v>655.5</v>
       </c>
-      <c r="Y4" s="6">
+      <c r="Y4" s="5">
         <f>O4+T4</f>
         <v>690</v>
       </c>
-      <c r="Z4" s="6">
+      <c r="Z4" s="5">
         <f t="shared" ref="Z4:AB19" si="3">P4+U4</f>
         <v>621</v>
       </c>
-      <c r="AA4" s="6">
+      <c r="AA4" s="5">
         <f t="shared" si="3"/>
         <v>672.75</v>
       </c>
-      <c r="AB4" s="6">
+      <c r="AB4" s="5">
         <f t="shared" si="3"/>
         <v>655.5</v>
       </c>
-      <c r="AC4" s="14">
+      <c r="AC4" s="13">
         <f>SUM(X4:AB4)</f>
         <v>3294.75</v>
       </c>
@@ -1272,102 +5056,102 @@
       <c r="C5" s="1">
         <v>19.8</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>42</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>41</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>43</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>40</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>44</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="9">
         <f t="shared" ref="I5:M23" si="4">IF(D5&gt;40,D5-40,0)</f>
         <v>2</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="7">
         <f t="shared" ref="N5:R23" si="5">$C5*D5</f>
         <v>831.6</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="7">
         <f t="shared" si="1"/>
         <v>811.80000000000007</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="7">
         <f t="shared" si="1"/>
         <v>851.4</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="7">
         <f t="shared" si="1"/>
         <v>792</v>
       </c>
-      <c r="R5" s="8">
+      <c r="R5" s="7">
         <f t="shared" si="1"/>
         <v>871.2</v>
       </c>
-      <c r="S5" s="12">
+      <c r="S5" s="11">
         <f>0.5*$C5*I5</f>
         <v>19.8</v>
       </c>
-      <c r="T5" s="12">
+      <c r="T5" s="11">
         <f t="shared" si="2"/>
         <v>9.9</v>
       </c>
-      <c r="U5" s="12">
+      <c r="U5" s="11">
         <f t="shared" si="2"/>
         <v>29.700000000000003</v>
       </c>
-      <c r="V5" s="12">
+      <c r="V5" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W5" s="12">
+      <c r="W5" s="11">
         <f t="shared" si="2"/>
         <v>39.6</v>
       </c>
-      <c r="X5" s="6">
+      <c r="X5" s="5">
         <f t="shared" ref="X5:AB23" si="6">N5+S5</f>
         <v>851.4</v>
       </c>
-      <c r="Y5" s="6">
+      <c r="Y5" s="5">
         <f t="shared" si="6"/>
         <v>821.7</v>
       </c>
-      <c r="Z5" s="6">
+      <c r="Z5" s="5">
         <f>P5+U5</f>
         <v>881.1</v>
       </c>
-      <c r="AA5" s="6">
+      <c r="AA5" s="5">
         <f t="shared" si="3"/>
         <v>792</v>
       </c>
-      <c r="AB5" s="6">
+      <c r="AB5" s="5">
         <f t="shared" si="3"/>
         <v>910.80000000000007</v>
       </c>
-      <c r="AC5" s="14">
+      <c r="AC5" s="13">
         <f t="shared" ref="AC5:AC23" si="7">SUM(X5:AB5)</f>
         <v>4257</v>
       </c>
@@ -1382,102 +5166,102 @@
       <c r="C6" s="1">
         <v>15.5</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>35</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>34</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>36</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>35</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>37</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="7">
         <f t="shared" si="5"/>
         <v>542.5</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="7">
         <f t="shared" si="1"/>
         <v>527</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="7">
         <f t="shared" si="1"/>
         <v>558</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q6" s="7">
         <f t="shared" si="1"/>
         <v>542.5</v>
       </c>
-      <c r="R6" s="8">
+      <c r="R6" s="7">
         <f t="shared" si="1"/>
         <v>573.5</v>
       </c>
-      <c r="S6" s="12">
+      <c r="S6" s="11">
         <f t="shared" ref="S6:W23" si="8">0.5*$C6*I6</f>
         <v>0</v>
       </c>
-      <c r="T6" s="12">
+      <c r="T6" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U6" s="12">
+      <c r="U6" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V6" s="12">
+      <c r="V6" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W6" s="12">
+      <c r="W6" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X6" s="6">
+      <c r="X6" s="5">
         <f t="shared" si="6"/>
         <v>542.5</v>
       </c>
-      <c r="Y6" s="6">
+      <c r="Y6" s="5">
         <f t="shared" si="6"/>
         <v>527</v>
       </c>
-      <c r="Z6" s="6">
+      <c r="Z6" s="5">
         <f>P6+U6</f>
         <v>558</v>
       </c>
-      <c r="AA6" s="6">
+      <c r="AA6" s="5">
         <f t="shared" si="3"/>
         <v>542.5</v>
       </c>
-      <c r="AB6" s="6">
+      <c r="AB6" s="5">
         <f t="shared" si="3"/>
         <v>573.5</v>
       </c>
-      <c r="AC6" s="14">
+      <c r="AC6" s="13">
         <f t="shared" si="7"/>
         <v>2743.5</v>
       </c>
@@ -1492,102 +5276,102 @@
       <c r="C7" s="1">
         <v>18.75</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>40</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>40</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>40</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>41</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>39</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="7">
         <f t="shared" si="5"/>
         <v>750</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="7">
         <f t="shared" si="1"/>
         <v>750</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="7">
         <f t="shared" si="1"/>
         <v>750</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="Q7" s="7">
         <f t="shared" si="1"/>
         <v>768.75</v>
       </c>
-      <c r="R7" s="8">
+      <c r="R7" s="7">
         <f t="shared" si="1"/>
         <v>731.25</v>
       </c>
-      <c r="S7" s="12">
+      <c r="S7" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T7" s="12">
+      <c r="T7" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U7" s="12">
+      <c r="U7" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V7" s="12">
+      <c r="V7" s="11">
         <f t="shared" si="2"/>
         <v>9.375</v>
       </c>
-      <c r="W7" s="12">
+      <c r="W7" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X7" s="6">
+      <c r="X7" s="5">
         <f t="shared" si="6"/>
         <v>750</v>
       </c>
-      <c r="Y7" s="6">
+      <c r="Y7" s="5">
         <f t="shared" si="6"/>
         <v>750</v>
       </c>
-      <c r="Z7" s="6">
+      <c r="Z7" s="5">
         <f t="shared" si="3"/>
         <v>750</v>
       </c>
-      <c r="AA7" s="6">
+      <c r="AA7" s="5">
         <f t="shared" si="3"/>
         <v>778.125</v>
       </c>
-      <c r="AB7" s="6">
+      <c r="AB7" s="5">
         <f t="shared" si="3"/>
         <v>731.25</v>
       </c>
-      <c r="AC7" s="14">
+      <c r="AC7" s="13">
         <f t="shared" si="7"/>
         <v>3759.375</v>
       </c>
@@ -1602,102 +5386,102 @@
       <c r="C8" s="1">
         <v>16.3</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>37</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>38</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>36</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>37</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>35</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="7">
         <f t="shared" si="5"/>
         <v>603.1</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="7">
         <f t="shared" si="1"/>
         <v>619.4</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="7">
         <f t="shared" si="1"/>
         <v>586.80000000000007</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="7">
         <f t="shared" si="1"/>
         <v>603.1</v>
       </c>
-      <c r="R8" s="8">
+      <c r="R8" s="7">
         <f t="shared" si="1"/>
         <v>570.5</v>
       </c>
-      <c r="S8" s="12">
+      <c r="S8" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T8" s="12">
+      <c r="T8" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U8" s="12">
+      <c r="U8" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V8" s="12">
+      <c r="V8" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W8" s="12">
+      <c r="W8" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X8" s="6">
+      <c r="X8" s="5">
         <f t="shared" si="6"/>
         <v>603.1</v>
       </c>
-      <c r="Y8" s="6">
+      <c r="Y8" s="5">
         <f t="shared" si="6"/>
         <v>619.4</v>
       </c>
-      <c r="Z8" s="6">
+      <c r="Z8" s="5">
         <f t="shared" si="3"/>
         <v>586.80000000000007</v>
       </c>
-      <c r="AA8" s="6">
+      <c r="AA8" s="5">
         <f t="shared" si="3"/>
         <v>603.1</v>
       </c>
-      <c r="AB8" s="6">
+      <c r="AB8" s="5">
         <f t="shared" si="3"/>
         <v>570.5</v>
       </c>
-      <c r="AC8" s="14">
+      <c r="AC8" s="13">
         <f t="shared" si="7"/>
         <v>2982.9</v>
       </c>
@@ -1712,102 +5496,102 @@
       <c r="C9" s="1">
         <v>20</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>44</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>45</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>43</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>42</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>44</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="9">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="7">
         <f t="shared" si="5"/>
         <v>880</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="7">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="7">
         <f t="shared" si="1"/>
         <v>860</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="7">
         <f t="shared" si="1"/>
         <v>840</v>
       </c>
-      <c r="R9" s="8">
+      <c r="R9" s="7">
         <f t="shared" si="1"/>
         <v>880</v>
       </c>
-      <c r="S9" s="12">
+      <c r="S9" s="11">
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
-      <c r="T9" s="12">
+      <c r="T9" s="11">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="U9" s="12">
+      <c r="U9" s="11">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="V9" s="12">
+      <c r="V9" s="11">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="W9" s="12">
+      <c r="W9" s="11">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="X9" s="6">
+      <c r="X9" s="5">
         <f t="shared" si="6"/>
         <v>920</v>
       </c>
-      <c r="Y9" s="6">
+      <c r="Y9" s="5">
         <f t="shared" si="6"/>
         <v>950</v>
       </c>
-      <c r="Z9" s="6">
+      <c r="Z9" s="5">
         <f t="shared" si="3"/>
         <v>890</v>
       </c>
-      <c r="AA9" s="6">
+      <c r="AA9" s="5">
         <f t="shared" si="3"/>
         <v>860</v>
       </c>
-      <c r="AB9" s="6">
+      <c r="AB9" s="5">
         <f t="shared" si="3"/>
         <v>920</v>
       </c>
-      <c r="AC9" s="14">
+      <c r="AC9" s="13">
         <f t="shared" si="7"/>
         <v>4540</v>
       </c>
@@ -1822,102 +5606,102 @@
       <c r="C10" s="1">
         <v>15.95</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>39</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>38</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>40</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>37</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>39</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="9">
         <f>IF(D10&gt;40,D10-40,0)</f>
         <v>0</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="7">
         <f t="shared" si="5"/>
         <v>622.04999999999995</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="7">
         <f t="shared" si="1"/>
         <v>606.1</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="7">
         <f t="shared" si="1"/>
         <v>638</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q10" s="7">
         <f t="shared" si="1"/>
         <v>590.15</v>
       </c>
-      <c r="R10" s="8">
+      <c r="R10" s="7">
         <f t="shared" si="1"/>
         <v>622.04999999999995</v>
       </c>
-      <c r="S10" s="12">
+      <c r="S10" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T10" s="12">
+      <c r="T10" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U10" s="12">
+      <c r="U10" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V10" s="12">
+      <c r="V10" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W10" s="12">
+      <c r="W10" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X10" s="6">
+      <c r="X10" s="5">
         <f t="shared" si="6"/>
         <v>622.04999999999995</v>
       </c>
-      <c r="Y10" s="6">
+      <c r="Y10" s="5">
         <f t="shared" si="6"/>
         <v>606.1</v>
       </c>
-      <c r="Z10" s="6">
+      <c r="Z10" s="5">
         <f t="shared" si="3"/>
         <v>638</v>
       </c>
-      <c r="AA10" s="6">
+      <c r="AA10" s="5">
         <f t="shared" si="3"/>
         <v>590.15</v>
       </c>
-      <c r="AB10" s="6">
+      <c r="AB10" s="5">
         <f t="shared" si="3"/>
         <v>622.04999999999995</v>
       </c>
-      <c r="AC10" s="14">
+      <c r="AC10" s="13">
         <f t="shared" si="7"/>
         <v>3078.3500000000004</v>
       </c>
@@ -1932,102 +5716,102 @@
       <c r="C11" s="1">
         <v>17.600000000000001</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>41</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>40</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>42</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>41</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>40</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="9">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M11" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="7">
         <f t="shared" si="5"/>
         <v>721.6</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="7">
         <f t="shared" si="1"/>
         <v>704</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="7">
         <f t="shared" si="1"/>
         <v>739.2</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="7">
         <f t="shared" si="1"/>
         <v>721.6</v>
       </c>
-      <c r="R11" s="8">
+      <c r="R11" s="7">
         <f t="shared" si="1"/>
         <v>704</v>
       </c>
-      <c r="S11" s="12">
+      <c r="S11" s="11">
         <f t="shared" si="8"/>
         <v>8.8000000000000007</v>
       </c>
-      <c r="T11" s="12">
+      <c r="T11" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U11" s="12">
+      <c r="U11" s="11">
         <f t="shared" si="2"/>
         <v>17.600000000000001</v>
       </c>
-      <c r="V11" s="12">
+      <c r="V11" s="11">
         <f t="shared" si="2"/>
         <v>8.8000000000000007</v>
       </c>
-      <c r="W11" s="12">
+      <c r="W11" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X11" s="6">
+      <c r="X11" s="5">
         <f t="shared" si="6"/>
         <v>730.4</v>
       </c>
-      <c r="Y11" s="6">
+      <c r="Y11" s="5">
         <f t="shared" si="6"/>
         <v>704</v>
       </c>
-      <c r="Z11" s="6">
+      <c r="Z11" s="5">
         <f t="shared" si="3"/>
         <v>756.80000000000007</v>
       </c>
-      <c r="AA11" s="6">
+      <c r="AA11" s="5">
         <f t="shared" si="3"/>
         <v>730.4</v>
       </c>
-      <c r="AB11" s="6">
+      <c r="AB11" s="5">
         <f t="shared" si="3"/>
         <v>704</v>
       </c>
-      <c r="AC11" s="14">
+      <c r="AC11" s="13">
         <f t="shared" si="7"/>
         <v>3625.6000000000004</v>
       </c>
@@ -2042,102 +5826,102 @@
       <c r="C12" s="1">
         <v>19.2</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>36</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>37</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>35</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>36</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>38</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M12" s="10">
+      <c r="M12" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="7">
         <f t="shared" si="5"/>
         <v>691.19999999999993</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="7">
         <f t="shared" si="1"/>
         <v>710.4</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="7">
         <f t="shared" si="1"/>
         <v>672</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="7">
         <f t="shared" si="1"/>
         <v>691.19999999999993</v>
       </c>
-      <c r="R12" s="8">
+      <c r="R12" s="7">
         <f t="shared" si="1"/>
         <v>729.6</v>
       </c>
-      <c r="S12" s="12">
+      <c r="S12" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T12" s="12">
+      <c r="T12" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U12" s="12">
+      <c r="U12" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V12" s="12">
+      <c r="V12" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W12" s="12">
+      <c r="W12" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X12" s="6">
+      <c r="X12" s="5">
         <f t="shared" si="6"/>
         <v>691.19999999999993</v>
       </c>
-      <c r="Y12" s="6">
+      <c r="Y12" s="5">
         <f t="shared" si="6"/>
         <v>710.4</v>
       </c>
-      <c r="Z12" s="6">
+      <c r="Z12" s="5">
         <f t="shared" si="3"/>
         <v>672</v>
       </c>
-      <c r="AA12" s="6">
+      <c r="AA12" s="5">
         <f t="shared" si="3"/>
         <v>691.19999999999993</v>
       </c>
-      <c r="AB12" s="6">
+      <c r="AB12" s="5">
         <f t="shared" si="3"/>
         <v>729.6</v>
       </c>
-      <c r="AC12" s="14">
+      <c r="AC12" s="13">
         <f t="shared" si="7"/>
         <v>3494.3999999999996</v>
       </c>
@@ -2152,102 +5936,102 @@
       <c r="C13" s="1">
         <v>16.850000000000001</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>40</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>40</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>40</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>40</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>40</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M13" s="10">
+      <c r="M13" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="7">
         <f t="shared" si="5"/>
         <v>674</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O13" s="7">
         <f t="shared" si="1"/>
         <v>674</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="7">
         <f t="shared" si="1"/>
         <v>674</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="Q13" s="7">
         <f t="shared" si="1"/>
         <v>674</v>
       </c>
-      <c r="R13" s="8">
+      <c r="R13" s="7">
         <f t="shared" si="1"/>
         <v>674</v>
       </c>
-      <c r="S13" s="12">
+      <c r="S13" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T13" s="12">
+      <c r="T13" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U13" s="12">
+      <c r="U13" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V13" s="12">
+      <c r="V13" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W13" s="12">
+      <c r="W13" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X13" s="6">
+      <c r="X13" s="5">
         <f t="shared" si="6"/>
         <v>674</v>
       </c>
-      <c r="Y13" s="6">
+      <c r="Y13" s="5">
         <f t="shared" si="6"/>
         <v>674</v>
       </c>
-      <c r="Z13" s="6">
+      <c r="Z13" s="5">
         <f t="shared" si="3"/>
         <v>674</v>
       </c>
-      <c r="AA13" s="6">
+      <c r="AA13" s="5">
         <f t="shared" si="3"/>
         <v>674</v>
       </c>
-      <c r="AB13" s="6">
+      <c r="AB13" s="5">
         <f t="shared" si="3"/>
         <v>674</v>
       </c>
-      <c r="AC13" s="14">
+      <c r="AC13" s="13">
         <f t="shared" si="7"/>
         <v>3370</v>
       </c>
@@ -2262,102 +6046,102 @@
       <c r="C14" s="1">
         <v>18.100000000000001</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>38</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>37</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>39</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>38</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>37</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M14" s="10">
+      <c r="M14" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="7">
         <f t="shared" si="5"/>
         <v>687.80000000000007</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O14" s="7">
         <f t="shared" si="1"/>
         <v>669.7</v>
       </c>
-      <c r="P14" s="8">
+      <c r="P14" s="7">
         <f t="shared" si="1"/>
         <v>705.90000000000009</v>
       </c>
-      <c r="Q14" s="8">
+      <c r="Q14" s="7">
         <f t="shared" si="1"/>
         <v>687.80000000000007</v>
       </c>
-      <c r="R14" s="8">
+      <c r="R14" s="7">
         <f t="shared" si="1"/>
         <v>669.7</v>
       </c>
-      <c r="S14" s="12">
+      <c r="S14" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T14" s="12">
+      <c r="T14" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U14" s="12">
+      <c r="U14" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V14" s="12">
+      <c r="V14" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W14" s="12">
+      <c r="W14" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X14" s="6">
+      <c r="X14" s="5">
         <f t="shared" si="6"/>
         <v>687.80000000000007</v>
       </c>
-      <c r="Y14" s="6">
+      <c r="Y14" s="5">
         <f t="shared" si="6"/>
         <v>669.7</v>
       </c>
-      <c r="Z14" s="6">
+      <c r="Z14" s="5">
         <f t="shared" si="3"/>
         <v>705.90000000000009</v>
       </c>
-      <c r="AA14" s="6">
+      <c r="AA14" s="5">
         <f t="shared" si="3"/>
         <v>687.80000000000007</v>
       </c>
-      <c r="AB14" s="6">
+      <c r="AB14" s="5">
         <f t="shared" si="3"/>
         <v>669.7</v>
       </c>
-      <c r="AC14" s="14">
+      <c r="AC14" s="13">
         <f t="shared" si="7"/>
         <v>3420.9000000000005</v>
       </c>
@@ -2372,102 +6156,102 @@
       <c r="C15" s="1">
         <v>19.45</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>43</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>42</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>44</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>43</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>41</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="9">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M15" s="10">
+      <c r="M15" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="7">
         <f t="shared" si="5"/>
         <v>836.35</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15" s="7">
         <f t="shared" si="1"/>
         <v>816.9</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="7">
         <f t="shared" si="1"/>
         <v>855.8</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="Q15" s="7">
         <f t="shared" si="1"/>
         <v>836.35</v>
       </c>
-      <c r="R15" s="8">
+      <c r="R15" s="7">
         <f t="shared" si="1"/>
         <v>797.44999999999993</v>
       </c>
-      <c r="S15" s="12">
+      <c r="S15" s="11">
         <f t="shared" si="8"/>
         <v>29.174999999999997</v>
       </c>
-      <c r="T15" s="12">
+      <c r="T15" s="11">
         <f t="shared" si="2"/>
         <v>19.45</v>
       </c>
-      <c r="U15" s="12">
+      <c r="U15" s="11">
         <f t="shared" si="2"/>
         <v>38.9</v>
       </c>
-      <c r="V15" s="12">
+      <c r="V15" s="11">
         <f t="shared" si="2"/>
         <v>29.174999999999997</v>
       </c>
-      <c r="W15" s="12">
+      <c r="W15" s="11">
         <f t="shared" si="2"/>
         <v>9.7249999999999996</v>
       </c>
-      <c r="X15" s="6">
+      <c r="X15" s="5">
         <f t="shared" si="6"/>
         <v>865.52499999999998</v>
       </c>
-      <c r="Y15" s="6">
+      <c r="Y15" s="5">
         <f t="shared" si="6"/>
         <v>836.35</v>
       </c>
-      <c r="Z15" s="6">
+      <c r="Z15" s="5">
         <f t="shared" si="3"/>
         <v>894.69999999999993</v>
       </c>
-      <c r="AA15" s="6">
+      <c r="AA15" s="5">
         <f t="shared" si="3"/>
         <v>865.52499999999998</v>
       </c>
-      <c r="AB15" s="6">
+      <c r="AB15" s="5">
         <f t="shared" si="3"/>
         <v>807.17499999999995</v>
       </c>
-      <c r="AC15" s="14">
+      <c r="AC15" s="13">
         <f t="shared" si="7"/>
         <v>4269.2749999999996</v>
       </c>
@@ -2482,102 +6266,102 @@
       <c r="C16" s="1">
         <v>15.75</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>34</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>35</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>33</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>34</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>36</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M16" s="10">
+      <c r="M16" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="7">
         <f t="shared" si="5"/>
         <v>535.5</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O16" s="7">
         <f t="shared" si="1"/>
         <v>551.25</v>
       </c>
-      <c r="P16" s="8">
+      <c r="P16" s="7">
         <f t="shared" si="1"/>
         <v>519.75</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="Q16" s="7">
         <f t="shared" si="1"/>
         <v>535.5</v>
       </c>
-      <c r="R16" s="8">
+      <c r="R16" s="7">
         <f t="shared" si="1"/>
         <v>567</v>
       </c>
-      <c r="S16" s="12">
+      <c r="S16" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T16" s="12">
+      <c r="T16" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U16" s="12">
+      <c r="U16" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V16" s="12">
+      <c r="V16" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W16" s="12">
+      <c r="W16" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X16" s="6">
+      <c r="X16" s="5">
         <f t="shared" si="6"/>
         <v>535.5</v>
       </c>
-      <c r="Y16" s="6">
+      <c r="Y16" s="5">
         <f t="shared" si="6"/>
         <v>551.25</v>
       </c>
-      <c r="Z16" s="6">
+      <c r="Z16" s="5">
         <f t="shared" si="3"/>
         <v>519.75</v>
       </c>
-      <c r="AA16" s="6">
+      <c r="AA16" s="5">
         <f t="shared" si="3"/>
         <v>535.5</v>
       </c>
-      <c r="AB16" s="6">
+      <c r="AB16" s="5">
         <f t="shared" si="3"/>
         <v>567</v>
       </c>
-      <c r="AC16" s="14">
+      <c r="AC16" s="13">
         <f t="shared" si="7"/>
         <v>2709</v>
       </c>
@@ -2592,102 +6376,102 @@
       <c r="C17" s="1">
         <v>16.95</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>40</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>39</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>41</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <v>40</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>40</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M17" s="10">
+      <c r="M17" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="7">
         <f t="shared" si="5"/>
         <v>678</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O17" s="7">
         <f t="shared" si="1"/>
         <v>661.05</v>
       </c>
-      <c r="P17" s="8">
+      <c r="P17" s="7">
         <f t="shared" si="1"/>
         <v>694.94999999999993</v>
       </c>
-      <c r="Q17" s="8">
+      <c r="Q17" s="7">
         <f t="shared" si="1"/>
         <v>678</v>
       </c>
-      <c r="R17" s="8">
+      <c r="R17" s="7">
         <f t="shared" si="1"/>
         <v>678</v>
       </c>
-      <c r="S17" s="12">
+      <c r="S17" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T17" s="12">
+      <c r="T17" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U17" s="12">
+      <c r="U17" s="11">
         <f t="shared" si="2"/>
         <v>8.4749999999999996</v>
       </c>
-      <c r="V17" s="12">
+      <c r="V17" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W17" s="12">
+      <c r="W17" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X17" s="6">
+      <c r="X17" s="5">
         <f t="shared" si="6"/>
         <v>678</v>
       </c>
-      <c r="Y17" s="6">
+      <c r="Y17" s="5">
         <f t="shared" si="6"/>
         <v>661.05</v>
       </c>
-      <c r="Z17" s="6">
+      <c r="Z17" s="5">
         <f t="shared" si="3"/>
         <v>703.42499999999995</v>
       </c>
-      <c r="AA17" s="6">
+      <c r="AA17" s="5">
         <f t="shared" si="3"/>
         <v>678</v>
       </c>
-      <c r="AB17" s="6">
+      <c r="AB17" s="5">
         <f t="shared" si="3"/>
         <v>678</v>
       </c>
-      <c r="AC17" s="14">
+      <c r="AC17" s="13">
         <f t="shared" si="7"/>
         <v>3398.4749999999999</v>
       </c>
@@ -2702,102 +6486,102 @@
       <c r="C18" s="1">
         <v>17.899999999999999</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>39</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>38</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>40</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <v>39</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <v>38</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M18" s="10">
+      <c r="M18" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="7">
         <f t="shared" si="5"/>
         <v>698.09999999999991</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O18" s="7">
         <f t="shared" si="1"/>
         <v>680.19999999999993</v>
       </c>
-      <c r="P18" s="8">
+      <c r="P18" s="7">
         <f t="shared" si="1"/>
         <v>716</v>
       </c>
-      <c r="Q18" s="8">
+      <c r="Q18" s="7">
         <f t="shared" si="1"/>
         <v>698.09999999999991</v>
       </c>
-      <c r="R18" s="8">
+      <c r="R18" s="7">
         <f t="shared" si="1"/>
         <v>680.19999999999993</v>
       </c>
-      <c r="S18" s="12">
+      <c r="S18" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T18" s="12">
+      <c r="T18" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U18" s="12">
+      <c r="U18" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V18" s="12">
+      <c r="V18" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W18" s="12">
+      <c r="W18" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X18" s="6">
+      <c r="X18" s="5">
         <f t="shared" si="6"/>
         <v>698.09999999999991</v>
       </c>
-      <c r="Y18" s="6">
+      <c r="Y18" s="5">
         <f t="shared" si="6"/>
         <v>680.19999999999993</v>
       </c>
-      <c r="Z18" s="6">
+      <c r="Z18" s="5">
         <f t="shared" si="3"/>
         <v>716</v>
       </c>
-      <c r="AA18" s="6">
+      <c r="AA18" s="5">
         <f t="shared" si="3"/>
         <v>698.09999999999991</v>
       </c>
-      <c r="AB18" s="6">
+      <c r="AB18" s="5">
         <f t="shared" si="3"/>
         <v>680.19999999999993</v>
       </c>
-      <c r="AC18" s="14">
+      <c r="AC18" s="13">
         <f t="shared" si="7"/>
         <v>3472.5999999999995</v>
       </c>
@@ -2812,102 +6596,102 @@
       <c r="C19" s="1">
         <v>18.5</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>45</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>44</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>46</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <v>45</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <v>43</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="9">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M19" s="10">
+      <c r="M19" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="7">
         <f t="shared" si="5"/>
         <v>832.5</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O19" s="7">
         <f t="shared" si="1"/>
         <v>814</v>
       </c>
-      <c r="P19" s="8">
+      <c r="P19" s="7">
         <f t="shared" si="1"/>
         <v>851</v>
       </c>
-      <c r="Q19" s="8">
+      <c r="Q19" s="7">
         <f t="shared" si="1"/>
         <v>832.5</v>
       </c>
-      <c r="R19" s="8">
+      <c r="R19" s="7">
         <f t="shared" si="1"/>
         <v>795.5</v>
       </c>
-      <c r="S19" s="12">
+      <c r="S19" s="11">
         <f t="shared" si="8"/>
         <v>46.25</v>
       </c>
-      <c r="T19" s="12">
+      <c r="T19" s="11">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="U19" s="12">
+      <c r="U19" s="11">
         <f t="shared" si="2"/>
         <v>55.5</v>
       </c>
-      <c r="V19" s="12">
+      <c r="V19" s="11">
         <f t="shared" si="2"/>
         <v>46.25</v>
       </c>
-      <c r="W19" s="12">
+      <c r="W19" s="11">
         <f t="shared" si="2"/>
         <v>27.75</v>
       </c>
-      <c r="X19" s="6">
+      <c r="X19" s="5">
         <f t="shared" si="6"/>
         <v>878.75</v>
       </c>
-      <c r="Y19" s="6">
+      <c r="Y19" s="5">
         <f t="shared" si="6"/>
         <v>851</v>
       </c>
-      <c r="Z19" s="6">
+      <c r="Z19" s="5">
         <f t="shared" si="3"/>
         <v>906.5</v>
       </c>
-      <c r="AA19" s="6">
+      <c r="AA19" s="5">
         <f t="shared" si="3"/>
         <v>878.75</v>
       </c>
-      <c r="AB19" s="6">
+      <c r="AB19" s="5">
         <f t="shared" si="3"/>
         <v>823.25</v>
       </c>
-      <c r="AC19" s="14">
+      <c r="AC19" s="13">
         <f t="shared" si="7"/>
         <v>4338.25</v>
       </c>
@@ -2922,102 +6706,102 @@
       <c r="C20" s="1">
         <v>19.100000000000001</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>37</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>36</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>38</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <v>37</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <v>36</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K20" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L20" s="10">
+      <c r="L20" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M20" s="10">
+      <c r="M20" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N20" s="7">
         <f t="shared" si="5"/>
         <v>706.7</v>
       </c>
-      <c r="O20" s="8">
+      <c r="O20" s="7">
         <f t="shared" si="5"/>
         <v>687.6</v>
       </c>
-      <c r="P20" s="8">
+      <c r="P20" s="7">
         <f t="shared" si="5"/>
         <v>725.80000000000007</v>
       </c>
-      <c r="Q20" s="8">
+      <c r="Q20" s="7">
         <f t="shared" si="5"/>
         <v>706.7</v>
       </c>
-      <c r="R20" s="8">
+      <c r="R20" s="7">
         <f t="shared" si="5"/>
         <v>687.6</v>
       </c>
-      <c r="S20" s="12">
+      <c r="S20" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T20" s="12">
+      <c r="T20" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U20" s="12">
+      <c r="U20" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V20" s="12">
+      <c r="V20" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="W20" s="12">
+      <c r="W20" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X20" s="6">
+      <c r="X20" s="5">
         <f t="shared" si="6"/>
         <v>706.7</v>
       </c>
-      <c r="Y20" s="6">
+      <c r="Y20" s="5">
         <f t="shared" si="6"/>
         <v>687.6</v>
       </c>
-      <c r="Z20" s="6">
+      <c r="Z20" s="5">
         <f t="shared" si="6"/>
         <v>725.80000000000007</v>
       </c>
-      <c r="AA20" s="6">
+      <c r="AA20" s="5">
         <f t="shared" si="6"/>
         <v>706.7</v>
       </c>
-      <c r="AB20" s="6">
+      <c r="AB20" s="5">
         <f t="shared" si="6"/>
         <v>687.6</v>
       </c>
-      <c r="AC20" s="14">
+      <c r="AC20" s="13">
         <f t="shared" si="7"/>
         <v>3514.4</v>
       </c>
@@ -3032,102 +6816,102 @@
       <c r="C21" s="1">
         <v>15.65</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>36</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>35</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>37</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>36</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <v>34</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K21" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L21" s="10">
+      <c r="L21" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M21" s="10">
+      <c r="M21" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N21" s="7">
         <f t="shared" si="5"/>
         <v>563.4</v>
       </c>
-      <c r="O21" s="8">
+      <c r="O21" s="7">
         <f t="shared" si="5"/>
         <v>547.75</v>
       </c>
-      <c r="P21" s="8">
+      <c r="P21" s="7">
         <f t="shared" si="5"/>
         <v>579.05000000000007</v>
       </c>
-      <c r="Q21" s="8">
+      <c r="Q21" s="7">
         <f t="shared" si="5"/>
         <v>563.4</v>
       </c>
-      <c r="R21" s="8">
+      <c r="R21" s="7">
         <f t="shared" si="5"/>
         <v>532.1</v>
       </c>
-      <c r="S21" s="12">
+      <c r="S21" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T21" s="12">
+      <c r="T21" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U21" s="12">
+      <c r="U21" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V21" s="12">
+      <c r="V21" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="W21" s="12">
+      <c r="W21" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X21" s="6">
+      <c r="X21" s="5">
         <f t="shared" si="6"/>
         <v>563.4</v>
       </c>
-      <c r="Y21" s="6">
+      <c r="Y21" s="5">
         <f t="shared" si="6"/>
         <v>547.75</v>
       </c>
-      <c r="Z21" s="6">
+      <c r="Z21" s="5">
         <f t="shared" si="6"/>
         <v>579.05000000000007</v>
       </c>
-      <c r="AA21" s="6">
+      <c r="AA21" s="5">
         <f t="shared" si="6"/>
         <v>563.4</v>
       </c>
-      <c r="AB21" s="6">
+      <c r="AB21" s="5">
         <f t="shared" si="6"/>
         <v>532.1</v>
       </c>
-      <c r="AC21" s="14">
+      <c r="AC21" s="13">
         <f t="shared" si="7"/>
         <v>2785.7000000000003</v>
       </c>
@@ -3142,102 +6926,102 @@
       <c r="C22" s="1">
         <v>20</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>42</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>43</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>41</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>42</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <v>44</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="9">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="9">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K22" s="9">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="9">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M22" s="10">
+      <c r="M22" s="9">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N22" s="7">
         <f t="shared" si="5"/>
         <v>840</v>
       </c>
-      <c r="O22" s="8">
+      <c r="O22" s="7">
         <f t="shared" si="5"/>
         <v>860</v>
       </c>
-      <c r="P22" s="8">
+      <c r="P22" s="7">
         <f t="shared" si="5"/>
         <v>820</v>
       </c>
-      <c r="Q22" s="8">
+      <c r="Q22" s="7">
         <f t="shared" si="5"/>
         <v>840</v>
       </c>
-      <c r="R22" s="8">
+      <c r="R22" s="7">
         <f t="shared" si="5"/>
         <v>880</v>
       </c>
-      <c r="S22" s="12">
+      <c r="S22" s="11">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="T22" s="12">
+      <c r="T22" s="11">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="U22" s="12">
+      <c r="U22" s="11">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="V22" s="12">
+      <c r="V22" s="11">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="W22" s="12">
+      <c r="W22" s="11">
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
-      <c r="X22" s="6">
+      <c r="X22" s="5">
         <f t="shared" si="6"/>
         <v>860</v>
       </c>
-      <c r="Y22" s="6">
+      <c r="Y22" s="5">
         <f t="shared" si="6"/>
         <v>890</v>
       </c>
-      <c r="Z22" s="6">
+      <c r="Z22" s="5">
         <f t="shared" si="6"/>
         <v>830</v>
       </c>
-      <c r="AA22" s="6">
+      <c r="AA22" s="5">
         <f t="shared" si="6"/>
         <v>860</v>
       </c>
-      <c r="AB22" s="6">
+      <c r="AB22" s="5">
         <f t="shared" si="6"/>
         <v>920</v>
       </c>
-      <c r="AC22" s="14">
+      <c r="AC22" s="13">
         <f t="shared" si="7"/>
         <v>4360</v>
       </c>
@@ -3252,122 +7036,105 @@
       <c r="C23" s="1">
         <v>16.399999999999999</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>35</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>34</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>36</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>35</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <v>33</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K23" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M23" s="10">
+      <c r="M23" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N23" s="8">
+      <c r="N23" s="7">
         <f t="shared" si="5"/>
         <v>574</v>
       </c>
-      <c r="O23" s="8">
+      <c r="O23" s="7">
         <f t="shared" si="5"/>
         <v>557.59999999999991</v>
       </c>
-      <c r="P23" s="8">
+      <c r="P23" s="7">
         <f t="shared" si="5"/>
         <v>590.4</v>
       </c>
-      <c r="Q23" s="8">
+      <c r="Q23" s="7">
         <f t="shared" si="5"/>
         <v>574</v>
       </c>
-      <c r="R23" s="8">
+      <c r="R23" s="7">
         <f t="shared" si="5"/>
         <v>541.19999999999993</v>
       </c>
-      <c r="S23" s="12">
+      <c r="S23" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T23" s="12">
+      <c r="T23" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U23" s="12">
+      <c r="U23" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V23" s="12">
+      <c r="V23" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="W23" s="12">
+      <c r="W23" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X23" s="6">
+      <c r="X23" s="5">
         <f t="shared" si="6"/>
         <v>574</v>
       </c>
-      <c r="Y23" s="6">
+      <c r="Y23" s="5">
         <f t="shared" si="6"/>
         <v>557.59999999999991</v>
       </c>
-      <c r="Z23" s="6">
+      <c r="Z23" s="5">
         <f t="shared" si="6"/>
         <v>590.4</v>
       </c>
-      <c r="AA23" s="6">
+      <c r="AA23" s="5">
         <f t="shared" si="6"/>
         <v>574</v>
       </c>
-      <c r="AB23" s="6">
+      <c r="AB23" s="5">
         <f t="shared" si="6"/>
         <v>541.19999999999993</v>
       </c>
-      <c r="AC23" s="14">
+      <c r="AC23" s="13">
         <f t="shared" si="7"/>
         <v>2837.2</v>
       </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -3377,31 +7144,26 @@
         <f>MAX(Table1[Hourly Wage])</f>
         <v>20</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25">
         <f>MAX(Table1[01-Jan])</f>
         <v>45</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25">
         <f>MAX(Table1[08-Jan])</f>
         <v>45</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25">
         <f>MAX(Table1[15-Jan])</f>
         <v>46</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25">
         <f>MAX(Table1[22-Jan])</f>
         <v>45</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25">
         <f>MAX(Table1[29-Jan])</f>
         <v>44</v>
       </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
       <c r="N25" s="1">
         <f>MAX(Table1[01-Jan7])</f>
         <v>880</v>
@@ -3422,23 +7184,23 @@
         <f>MAX(Table1[29-Jan11])</f>
         <v>880</v>
       </c>
-      <c r="S25" s="15">
+      <c r="S25" s="14">
         <f>MAX(Table1[01-Jan12])</f>
         <v>46.25</v>
       </c>
-      <c r="T25" s="15">
+      <c r="T25" s="14">
         <f>MAX(Table1[08-Jan13])</f>
         <v>50</v>
       </c>
-      <c r="U25" s="15">
+      <c r="U25" s="14">
         <f>MAX(Table1[15-Jan14])</f>
         <v>55.5</v>
       </c>
-      <c r="V25" s="15">
+      <c r="V25" s="14">
         <f>MAX(Table1[22-Jan15])</f>
         <v>46.25</v>
       </c>
-      <c r="W25" s="15">
+      <c r="W25" s="14">
         <f>MAX(Table1[29-Jan16])</f>
         <v>40</v>
       </c>
@@ -3475,31 +7237,26 @@
         <f>MIN(Table1[Hourly Wage])</f>
         <v>15.5</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26">
         <f>MIN(Table1[01-Jan])</f>
         <v>34</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26">
         <f>MIN(Table1[08-Jan])</f>
         <v>34</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26">
         <f>MIN(Table1[15-Jan])</f>
         <v>33</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26">
         <f>MIN(Table1[22-Jan])</f>
         <v>34</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26">
         <f>MIN(Table1[29-Jan])</f>
         <v>33</v>
       </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
       <c r="N26" s="1">
         <f>MIN(Table1[01-Jan7])</f>
         <v>535.5</v>
@@ -3520,23 +7277,23 @@
         <f>MIN(Table1[29-Jan11])</f>
         <v>532.1</v>
       </c>
-      <c r="S26" s="15">
+      <c r="S26" s="14">
         <f>MIN(Table1[01-Jan12])</f>
         <v>0</v>
       </c>
-      <c r="T26" s="15">
+      <c r="T26" s="14">
         <f>MIN(Table1[08-Jan13])</f>
         <v>0</v>
       </c>
-      <c r="U26" s="15">
+      <c r="U26" s="14">
         <f>MIN(Table1[15-Jan14])</f>
         <v>0</v>
       </c>
-      <c r="V26" s="15">
+      <c r="V26" s="14">
         <f>MIN(Table1[22-Jan15])</f>
         <v>0</v>
       </c>
-      <c r="W26" s="15">
+      <c r="W26" s="14">
         <f>MIN(Table1[29-Jan16])</f>
         <v>0</v>
       </c>
@@ -3573,31 +7330,26 @@
         <f>AVERAGE(Table1[Hourly Wage])</f>
         <v>17.749999999999996</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27">
         <f>AVERAGE(Table1[01-Jan])</f>
         <v>39.049999999999997</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27">
         <f>AVERAGE(Table1[08-Jan])</f>
         <v>38.799999999999997</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27">
         <f>AVERAGE(Table1[15-Jan])</f>
         <v>39.299999999999997</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27">
         <f>AVERAGE(Table1[22-Jan])</f>
         <v>38.85</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27">
         <f>AVERAGE(Table1[29-Jan])</f>
         <v>38.799999999999997</v>
       </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
       <c r="N27" s="1">
         <f>AVERAGE(Table1[01-Jan7])</f>
         <v>696.19500000000005</v>
@@ -3618,23 +7370,23 @@
         <f>AVERAGE(Table1[29-Jan11])</f>
         <v>692.01750000000015</v>
       </c>
-      <c r="S27" s="15">
+      <c r="S27" s="14">
         <f>AVERAGE(Table1[01-Jan12])</f>
         <v>8.2012499999999982</v>
       </c>
-      <c r="T27" s="15">
+      <c r="T27" s="14">
         <f>AVERAGE(Table1[08-Jan13])</f>
         <v>7.3174999999999999</v>
       </c>
-      <c r="U27" s="15">
+      <c r="U27" s="14">
         <f>AVERAGE(Table1[15-Jan14])</f>
         <v>9.5087500000000009</v>
       </c>
-      <c r="V27" s="15">
+      <c r="V27" s="14">
         <f>AVERAGE(Table1[22-Jan15])</f>
         <v>6.68</v>
       </c>
-      <c r="W27" s="15">
+      <c r="W27" s="14">
         <f>AVERAGE(Table1[29-Jan16])</f>
         <v>7.8537499999999998</v>
       </c>
@@ -3671,31 +7423,26 @@
         <f>SUM(Table1[Hourly Wage])</f>
         <v>354.99999999999994</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28">
         <f>SUM(Table1[01-Jan])</f>
         <v>781</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28">
         <f>SUM(Table1[08-Jan])</f>
         <v>776</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28">
         <f>SUM(Table1[15-Jan])</f>
         <v>786</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28">
         <f>SUM(Table1[22-Jan])</f>
         <v>777</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28">
         <f>SUM(Table1[29-Jan])</f>
         <v>776</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
       <c r="N28" s="1">
         <f>SUM(Table1[01-Jan7])</f>
         <v>13923.900000000001</v>
@@ -3716,23 +7463,23 @@
         <f>SUM(Table1[29-Jan11])</f>
         <v>13840.350000000002</v>
       </c>
-      <c r="S28" s="15">
+      <c r="S28" s="14">
         <f>SUM(Table1[01-Jan12])</f>
         <v>164.02499999999998</v>
       </c>
-      <c r="T28" s="15">
+      <c r="T28" s="14">
         <f>SUM(Table1[08-Jan13])</f>
         <v>146.35</v>
       </c>
-      <c r="U28" s="15">
+      <c r="U28" s="14">
         <f>SUM(Table1[15-Jan14])</f>
         <v>190.17500000000001</v>
       </c>
-      <c r="V28" s="15">
+      <c r="V28" s="14">
         <f>SUM(Table1[22-Jan15])</f>
         <v>133.6</v>
       </c>
-      <c r="W28" s="15">
+      <c r="W28" s="14">
         <f>SUM(Table1[29-Jan16])</f>
         <v>157.07499999999999</v>
       </c>
@@ -3768,4 +7515,1012 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E217F963-01C7-4D0A-A756-F4AD3D7011D4}">
+  <dimension ref="A1:M26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AA17" sqref="AA17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="126" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>96</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="17">
+        <f>C4/$C$2</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="17">
+        <f>D4/$D$2</f>
+        <v>0.95</v>
+      </c>
+      <c r="J4" s="17">
+        <f>E4/$E$2</f>
+        <v>0.96</v>
+      </c>
+      <c r="K4" s="17">
+        <f>F4/$F$2</f>
+        <v>1</v>
+      </c>
+      <c r="M4" t="b">
+        <f>OR(H4&lt;0.5,I4&lt;0.5,J4&lt;0.5,K4&lt;0.5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>98</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="17">
+        <f t="shared" ref="H5:H22" si="0">C5/$C$2</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="17">
+        <f t="shared" ref="I5:I22" si="1">D5/$D$2</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="17">
+        <f t="shared" ref="J5:J22" si="2">E5/$E$2</f>
+        <v>0.98</v>
+      </c>
+      <c r="K5" s="17">
+        <f t="shared" ref="K5:K22" si="3">F5/$F$2</f>
+        <v>1</v>
+      </c>
+      <c r="M5" t="b">
+        <f t="shared" ref="M5:M22" si="4">OR(H5&lt;0.5,I5&lt;0.5,J5&lt;0.5,K5&lt;0.5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="17">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="I6" s="17">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="J6" s="17">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="K6" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M6" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>92</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="17">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="I7" s="17">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="J7" s="17">
+        <f t="shared" si="2"/>
+        <v>0.92</v>
+      </c>
+      <c r="K7" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M7" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>22</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="17">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="I8" s="17">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="J8" s="17">
+        <f t="shared" si="2"/>
+        <v>0.22</v>
+      </c>
+      <c r="K8" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M8" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>81</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="17">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="I9" s="17">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="J9" s="17">
+        <f t="shared" si="2"/>
+        <v>0.81</v>
+      </c>
+      <c r="K9" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M9" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>73</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="17">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="I10" s="17">
+        <f t="shared" si="1"/>
+        <v>0.65</v>
+      </c>
+      <c r="J10" s="17">
+        <f t="shared" si="2"/>
+        <v>0.73</v>
+      </c>
+      <c r="K10" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M10" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="17">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="I11" s="17">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="J11" s="17">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="K11" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M11" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>90</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="17">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="I12" s="17">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="J12" s="17">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="K12" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M12" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="17">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="I13" s="17">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="J13" s="17">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
+      <c r="K13" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M13" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>52</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="17">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="17">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="J14" s="17">
+        <f t="shared" si="2"/>
+        <v>0.52</v>
+      </c>
+      <c r="K14" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M14" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="H15" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I15" s="17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J15" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K15" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M15" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>35</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="H16" s="17">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="I16" s="17">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="J16" s="17">
+        <f t="shared" si="2"/>
+        <v>0.35</v>
+      </c>
+      <c r="K16" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M16" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>28</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="17">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="I17" s="17">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="J17" s="17">
+        <f t="shared" si="2"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K17" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M17" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <v>84</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="17">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="I18" s="17">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="J18" s="17">
+        <f t="shared" si="2"/>
+        <v>0.84</v>
+      </c>
+      <c r="K18" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M18" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>99</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I19" s="17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J19" s="17">
+        <f t="shared" si="2"/>
+        <v>0.99</v>
+      </c>
+      <c r="K19" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M19" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="17">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="I20" s="17">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="J20" s="17">
+        <f t="shared" si="2"/>
+        <v>0.18</v>
+      </c>
+      <c r="K20" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M20" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>63</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="H21" s="17">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="I21" s="17">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="J21" s="17">
+        <f t="shared" si="2"/>
+        <v>0.63</v>
+      </c>
+      <c r="K21" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M21" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>17</v>
+      </c>
+      <c r="E22">
+        <v>88</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="H22" s="17">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="I22" s="17">
+        <f t="shared" si="1"/>
+        <v>0.85</v>
+      </c>
+      <c r="J22" s="17">
+        <f t="shared" si="2"/>
+        <v>0.88</v>
+      </c>
+      <c r="K22" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M22" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="18">
+        <f>MAX(C4:C22)</f>
+        <v>10</v>
+      </c>
+      <c r="D24" s="18">
+        <f t="shared" ref="D24:E24" si="5">MAX(D4:D22)</f>
+        <v>20</v>
+      </c>
+      <c r="E24" s="18">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="F24" s="18">
+        <f>MAX(F4:F22)</f>
+        <v>1</v>
+      </c>
+      <c r="H24" s="17">
+        <f>MAX(H4:H22)</f>
+        <v>1</v>
+      </c>
+      <c r="I24" s="17">
+        <f t="shared" ref="I24:K24" si="6">MAX(I4:I22)</f>
+        <v>1</v>
+      </c>
+      <c r="J24" s="17">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K24" s="17">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="18">
+        <f>MIN(C4:C22)</f>
+        <v>1</v>
+      </c>
+      <c r="D25" s="18">
+        <f t="shared" ref="D25:E25" si="7">MIN(D4:D22)</f>
+        <v>3</v>
+      </c>
+      <c r="E25" s="18">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="F25" s="18">
+        <f>MIN(F4:F22)</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="17">
+        <f>MIN(H4:H22)</f>
+        <v>0.1</v>
+      </c>
+      <c r="I25" s="17">
+        <f t="shared" ref="I25:K25" si="8">MIN(I4:I22)</f>
+        <v>0.15</v>
+      </c>
+      <c r="J25" s="17">
+        <f t="shared" si="8"/>
+        <v>0.1</v>
+      </c>
+      <c r="K25" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="18">
+        <f>AVERAGE(C4:C22)</f>
+        <v>6</v>
+      </c>
+      <c r="D26" s="18">
+        <f t="shared" ref="D26:E26" si="9">AVERAGE(D4:D22)</f>
+        <v>12.263157894736842</v>
+      </c>
+      <c r="E26" s="18">
+        <f t="shared" si="9"/>
+        <v>60.842105263157897</v>
+      </c>
+      <c r="F26" s="18">
+        <f>AVERAGE(F4:F22)</f>
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="H26" s="17">
+        <f>AVERAGE(H4:H22)</f>
+        <v>0.6</v>
+      </c>
+      <c r="I26" s="17">
+        <f t="shared" ref="I26:K26" si="10">AVERAGE(I4:I22)</f>
+        <v>0.61315789473684212</v>
+      </c>
+      <c r="J26" s="17">
+        <f t="shared" si="10"/>
+        <v>0.60842105263157897</v>
+      </c>
+      <c r="K26" s="17">
+        <f t="shared" si="10"/>
+        <v>0.73684210526315785</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C4:C22">
+    <cfRule type="iconSet" priority="8">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D22">
+    <cfRule type="iconSet" priority="7">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E22">
+    <cfRule type="iconSet" priority="6">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F22">
+    <cfRule type="iconSet" priority="4">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="5">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:K22">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:M22">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"TURE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>